--- a/public/files/CommentsTest2.xlsx
+++ b/public/files/CommentsTest2.xlsx
@@ -449,7 +449,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
